--- a/planilhas/planilha_inserindo_dados.xlsx
+++ b/planilhas/planilha_inserindo_dados.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="B1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
     <row r="1">
       <c r="B1" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Hi</t>
         </is>
       </c>
     </row>
@@ -438,7 +438,7 @@
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>Chile</t>
+          <t>Python</t>
         </is>
       </c>
     </row>
